--- a/public/회의실행항목_템플릿.xlsx
+++ b/public/회의실행항목_템플릿.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>회의제목</t>
   </si>
@@ -25,6 +25,9 @@
     <t>내용</t>
   </si>
   <si>
+    <t>기록여부</t>
+  </si>
+  <si>
     <t>일간회의</t>
   </si>
   <si>
@@ -34,6 +37,9 @@
     <t>신규 거래처 가격 견적서 발송 완료 확인</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>월간회의</t>
   </si>
   <si>
@@ -50,6 +56,9 @@
   </si>
   <si>
     <t>신규 제조원 발굴 현황 공유 및 평가</t>
+  </si>
+  <si>
+    <t>기록</t>
   </si>
 </sst>
 </file>
@@ -474,15 +483,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D100"/>
+  <dimension ref="A1:E100"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="2" width="15" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="4" width="60" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="25" customHeight="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" ht="25" customHeight="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -495,441 +505,459 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2" s="3">
         <v>45981</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B3" s="3">
         <v>45976</v>
       </c>
       <c r="C3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B4" s="3">
         <v>45931</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6"/>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" s="5"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
       <c r="C13" s="6"/>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
       <c r="C14" s="6"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
       <c r="C15" s="6"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
       <c r="C16" s="6"/>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
       <c r="C18" s="6"/>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
       <c r="C19" s="6"/>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="6"/>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
       <c r="C22" s="6"/>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
       <c r="C24" s="6"/>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
       <c r="C25" s="6"/>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
       <c r="C26" s="6"/>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
       <c r="C27" s="6"/>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
       <c r="C28" s="6"/>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="5"/>
       <c r="C29" s="6"/>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="5"/>
       <c r="C30" s="6"/>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="5"/>
       <c r="C31" s="6"/>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B32" s="5"/>
       <c r="C32" s="6"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" s="5"/>
       <c r="C33" s="6"/>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" s="5"/>
       <c r="C34" s="6"/>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" s="5"/>
       <c r="C35" s="6"/>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" s="5"/>
       <c r="C36" s="6"/>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" s="5"/>
       <c r="C37" s="6"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" s="5"/>
       <c r="C38" s="6"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B39" s="5"/>
       <c r="C39" s="6"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" s="5"/>
       <c r="C40" s="6"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" s="5"/>
       <c r="C41" s="6"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" s="5"/>
       <c r="C42" s="6"/>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" s="5"/>
       <c r="C43" s="6"/>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B44" s="5"/>
       <c r="C44" s="6"/>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" s="5"/>
       <c r="C45" s="6"/>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B46" s="5"/>
       <c r="C46" s="6"/>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" s="5"/>
       <c r="C47" s="6"/>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B48" s="5"/>
       <c r="C48" s="6"/>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B49" s="5"/>
       <c r="C49" s="6"/>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B50" s="5"/>
       <c r="C50" s="6"/>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B51" s="5"/>
       <c r="C51" s="6"/>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B52" s="5"/>
       <c r="C52" s="6"/>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B53" s="5"/>
       <c r="C53" s="6"/>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B54" s="5"/>
       <c r="C54" s="6"/>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B55" s="5"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B56" s="5"/>
       <c r="C56" s="6"/>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B57" s="5"/>
       <c r="C57" s="6"/>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B58" s="5"/>
       <c r="C58" s="6"/>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B59" s="5"/>
       <c r="C59" s="6"/>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B60" s="5"/>
       <c r="C60" s="6"/>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B61" s="5"/>
       <c r="C61" s="6"/>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B62" s="5"/>
       <c r="C62" s="6"/>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B63" s="5"/>
       <c r="C63" s="6"/>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B64" s="5"/>
       <c r="C64" s="6"/>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B65" s="5"/>
       <c r="C65" s="6"/>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B66" s="5"/>
       <c r="C66" s="6"/>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B67" s="5"/>
       <c r="C67" s="6"/>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B68" s="5"/>
       <c r="C68" s="6"/>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B69" s="5"/>
       <c r="C69" s="6"/>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B70" s="5"/>
       <c r="C70" s="6"/>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B71" s="5"/>
       <c r="C71" s="6"/>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B72" s="5"/>
       <c r="C72" s="6"/>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B73" s="5"/>
       <c r="C73" s="6"/>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B74" s="5"/>
       <c r="C74" s="6"/>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B75" s="5"/>
       <c r="C75" s="6"/>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B76" s="5"/>
       <c r="C76" s="6"/>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B77" s="5"/>
       <c r="C77" s="6"/>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B78" s="5"/>
       <c r="C78" s="6"/>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B79" s="5"/>
       <c r="C79" s="6"/>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B80" s="5"/>
       <c r="C80" s="6"/>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B81" s="5"/>
       <c r="C81" s="6"/>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B82" s="5"/>
       <c r="C82" s="6"/>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B83" s="5"/>
       <c r="C83" s="6"/>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B84" s="5"/>
       <c r="C84" s="6"/>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B85" s="5"/>
       <c r="C85" s="6"/>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B86" s="5"/>
       <c r="C86" s="6"/>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B87" s="5"/>
       <c r="C87" s="6"/>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B88" s="5"/>
       <c r="C88" s="6"/>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B89" s="5"/>
       <c r="C89" s="6"/>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B90" s="5"/>
       <c r="C90" s="6"/>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B91" s="5"/>
       <c r="C91" s="6"/>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B92" s="5"/>
       <c r="C92" s="6"/>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B93" s="5"/>
       <c r="C93" s="6"/>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B94" s="5"/>
       <c r="C94" s="6"/>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B95" s="5"/>
       <c r="C95" s="6"/>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B96" s="5"/>
       <c r="C96" s="6"/>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B97" s="5"/>
       <c r="C97" s="6"/>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B98" s="5"/>
       <c r="C98" s="6"/>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B99" s="5"/>
       <c r="C99" s="6"/>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B100" s="5"/>
       <c r="C100" s="6"/>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="4">
     <dataValidation type="list" showErrorMessage="1" errorStyle="error" errorTitle="입력 오류" error="허용된 값: 일간회의, 월간회의, 분기회의, 년마감회의" sqref="A10:A100">
       <formula1>"일간회의,월간회의,분기회의,년마감회의"</formula1>
     </dataValidation>
     <dataValidation type="list" showErrorMessage="1" errorStyle="error" errorTitle="입력 오류" error="허용된 값: 일간회의, 월간회의, 분기회의, 년마감회의" sqref="A2:A100">
       <formula1>"일간회의,월간회의,분기회의,년마감회의"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="warning" errorTitle="입력 안내" error="담당자/답변이 필요 없는 단순 기록은 &quot;기록&quot;을 입력하세요" sqref="E10:E100">
+      <formula1>"기록"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorStyle="warning" errorTitle="입력 안내" error="담당자/답변이 필요 없는 단순 기록은 &quot;기록&quot;을 입력하세요" sqref="E2:E100">
+      <formula1>"기록"</formula1>
+    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
